--- a/Assignment 1/value_counts.xlsx
+++ b/Assignment 1/value_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02806c4451e307b/Robotics Engineering/ML/ML repo/Assignment 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_7C3981EFF613C816C339B0CD492D289B646654E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{178609DF-E1F9-4C2A-8177-3258CBF1428F}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="11_7C3981EFF613C816C339B0CD492D289B646654E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B294A038-CD85-4630-9EDD-3E51094380D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4356" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compute prior" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,16 +220,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -245,6 +245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,7 +541,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,12 +607,12 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,10 +628,10 @@
       <c r="S3" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="T3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -647,14 +651,14 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="O4" t="s">
@@ -672,11 +676,11 @@
       <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <f>K9*K12*K15*K18*I6</f>
         <v>3.4985422740524776E-2</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <f>L9*L12*L15*L18*J6</f>
         <v>0</v>
       </c>
@@ -697,18 +701,18 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>COUNTA(E2:E11)</f>
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>COUNTIF(E2:E11, "yes")</f>
         <v>7</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f>COUNTIF(E2:E11, "no")</f>
         <v>3</v>
       </c>
@@ -727,11 +731,11 @@
       <c r="S5" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <f>K9*K13*K16*K17*I6</f>
         <v>1.865889212827988E-2</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <f>L9*L13*L16*L17*J6</f>
         <v>0</v>
       </c>
@@ -752,15 +756,15 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <f>I5/H5</f>
         <v>0.7</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f>J5/H5</f>
         <v>0.3</v>
       </c>
@@ -779,11 +783,11 @@
       <c r="S6" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <f>K9*K14*K15*K17*I6</f>
         <v>2.0991253644314863E-2</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <f>L9*L14*L15*L17*J6</f>
         <v>0</v>
       </c>
@@ -819,11 +823,11 @@
       <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <f>K9*K12*K16*K18*I6</f>
         <v>4.6647230320699694E-2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <f>L9*L12*L16*L18*J6</f>
         <v>0</v>
       </c>
@@ -844,21 +848,21 @@
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O8" t="s">
@@ -876,11 +880,11 @@
       <c r="S8" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <f>K10*K14*K15*K18*I6</f>
         <v>3.9358600583090375E-2</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <f>L10*L14*L15*L18*J6</f>
         <v>1.4814814814814814E-2</v>
       </c>
@@ -901,29 +905,29 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f>COUNTIF(A2:A11, G9)</f>
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>COUNTIFS($A$2:$A$11, G9, $E$2:$E$11, "yes")</f>
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f>COUNTIFS($A$2:$A$11, G9, $E$2:$E$11, "no")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f>I9/$I$5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>J9/$J$5</f>
         <v>0</v>
       </c>
@@ -942,11 +946,11 @@
       <c r="S9" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <f>K10*K13*K18*I6*K16</f>
         <v>3.4985422740524776E-2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <f>L10*L13*L18*J6*L16</f>
         <v>7.407407407407406E-3</v>
       </c>
@@ -967,28 +971,28 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f>COUNTIF(A2:A11, G10)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <f t="shared" ref="I10:J19" si="0">COUNTIFS($A$2:$A$11, G10, $E$2:$E$11, "yes")</f>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:I11" si="0">COUNTIFS($A$2:$A$11, G10, $E$2:$E$11, "yes")</f>
         <v>3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f>COUNTIFS($A$2:$A$11, G10, $E$2:$E$11, "no")</f>
         <v>2</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" ref="K10:K19" si="1">I10/$I$5</f>
+      <c r="K10" s="6">
+        <f t="shared" ref="K10:K14" si="1">I10/$I$5</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L10" s="7">
-        <f t="shared" ref="L10:L19" si="2">J10/$J$5</f>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L14" si="2">J10/$J$5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="O10" t="s">
@@ -1006,11 +1010,11 @@
       <c r="S10" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <f>K10*K13*K16*K17*I6</f>
         <v>1.3994169096209907E-2</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <f>L10*L13*L16*L17*J6</f>
         <v>1.4814814814814814E-2</v>
       </c>
@@ -1031,27 +1035,27 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f>COUNTIF(A2:A11, G11)</f>
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f>COUNTIFS($A$2:$A$11, G11, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1070,39 +1074,39 @@
       <c r="S11" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <f>K10*K14*K16*K18*I6</f>
         <v>5.247813411078716E-2</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <f>L10*L14*L16*L18*J6</f>
         <v>7.4074074074074068E-3</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f>COUNTIF(B2:B11, G12)</f>
         <v>3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <f>COUNTIFS($B$2:$B$11, G12, $E$2:$E$11, "yes")</f>
         <v>2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f>COUNTIFS($B$2:$B$11, G12, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1121,37 +1125,37 @@
       <c r="S12" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <f>K10*K14*K15*K17*I6</f>
         <v>1.5743440233236147E-2</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <f>L10*L14*L15*L17*J6</f>
         <v>2.9629629629629627E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" ref="H13:H15" si="3">COUNTIF(B3:B16, G13)</f>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="3">COUNTIF(B3:B16, G13)</f>
         <v>3</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13:I15" si="4">COUNTIFS($B$2:$B$11, G13, $E$2:$E$11, "yes")</f>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I14" si="4">COUNTIFS($B$2:$B$11, G13, $E$2:$E$11, "yes")</f>
         <v>2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f>COUNTIFS($B$2:$B$11, G13, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1170,119 +1174,119 @@
       <c r="S13" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <f>K11*K12*K15*K18*I6</f>
         <v>0</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <f>L11*L12*L15*L18*J6</f>
         <v>7.4074074074074068E-3</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f>COUNTIF(B2:B11, G14)</f>
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f>COUNTIFS($B$2:$B$11, G14, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f>COUNTIF(C2:C11, G15)</f>
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f>COUNTIFS($C$2:$C$11, G15, $E$2:$E$11, "yes")</f>
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f>COUNTIFS($C$2:$C$11, G15, $E$2:$E$11, "no")</f>
         <v>2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f>I15/$I$5</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f>J15/$J$5</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f>COUNTIF(C2:C11, G16)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f>COUNTIFS($C$2:$C$11, G16, $E$2:$E$11, "yes")</f>
         <v>4</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f>COUNTIFS($C$2:$C$11, G16, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f>I16/$I$5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f>J16/$J$5</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
         <f>COUNTIF(D2:D11, G17)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f>COUNTIFS($D$2:$D$11, G17, $E$2:$E$11, "yes")</f>
         <v>2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f>COUNTIFS($D$2:$D$11, G17, $E$2:$E$11, "no")</f>
         <v>2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f>I17/$I$5</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f>J17/$J$5</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1311,27 +1315,27 @@
       </c>
     </row>
     <row r="18" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <f>COUNTIF(D2:D11, G18)</f>
         <v>6</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f>COUNTIFS($D$2:$D$11, G18, $E$2:$E$11, "yes")</f>
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f>COUNTIFS($D$2:$D$11, G18, $E$2:$E$11, "no")</f>
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f>I18/$I$5</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f>J18/$J$5</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1410,49 +1414,49 @@
       </c>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="6:21" x14ac:dyDescent="0.3">
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
         <f>I25/H25</f>
         <v>0.5</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f>J25/H25</f>
         <v>0.5</v>
       </c>
